--- a/output/movies_data.xlsx
+++ b/output/movies_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="358">
   <si>
     <t>Movie Title</t>
   </si>
@@ -55,7 +55,7 @@
     <t>Actor 2</t>
   </si>
   <si>
-    <t>Rotten Tomatoes</t>
+    <t>Rotten Tomatoes (%)</t>
   </si>
   <si>
     <t>Metacritic</t>
@@ -682,10 +682,10 @@
     <t>Shane Black</t>
   </si>
   <si>
-    <t>Chris Buck, Jennifer Lee</t>
-  </si>
-  <si>
-    <t>Pierre Coffin, Chris Renaud</t>
+    <t>Chris Buck</t>
+  </si>
+  <si>
+    <t>Pierre Coffin</t>
   </si>
   <si>
     <t>Zack Snyder</t>
@@ -712,10 +712,10 @@
     <t>James Gunn</t>
   </si>
   <si>
-    <t>Anthony Russo, Joe Russo</t>
-  </si>
-  <si>
-    <t>Phil Lord, Christopher Miller</t>
+    <t>Anthony Russo</t>
+  </si>
+  <si>
+    <t>Phil Lord</t>
   </si>
   <si>
     <t>Michael Bay</t>
@@ -727,7 +727,7 @@
     <t>Bryan Singer</t>
   </si>
   <si>
-    <t>Don Hall, Chris Williams</t>
+    <t>Don Hall</t>
   </si>
   <si>
     <t>J.J. Abrams</t>
@@ -739,13 +739,13 @@
     <t>Joss Whedon</t>
   </si>
   <si>
-    <t>Pete Docter, Ronnie Del Carmen(co-director)</t>
+    <t>Pete Docter</t>
   </si>
   <si>
     <t>James Wan</t>
   </si>
   <si>
-    <t>Kyle Balda, Pierre Coffin</t>
+    <t>Kyle Balda</t>
   </si>
   <si>
     <t>Ridley Scott</t>
@@ -760,10 +760,10 @@
     <t>Gareth Edwards</t>
   </si>
   <si>
-    <t>Andrew Stanton, Angus MacLane(co-director)</t>
-  </si>
-  <si>
-    <t>Chris Renaud, Yarrow Cheney(co-director)</t>
+    <t>Andrew Stanton</t>
+  </si>
+  <si>
+    <t>Chris Renaud</t>
   </si>
   <si>
     <t>Jon Favreau</t>
@@ -772,13 +772,13 @@
     <t>Tim Miller</t>
   </si>
   <si>
-    <t>Byron Howard, Rich Moore, Jared Bush(co-director)</t>
+    <t>Byron Howard</t>
   </si>
   <si>
     <t>David Ayer</t>
   </si>
   <si>
-    <t>Garth Jennings, Christophe Lourdelet(co-director)</t>
+    <t>Garth Jennings</t>
   </si>
   <si>
     <t>Rian Johnson</t>
@@ -802,403 +802,253 @@
     <t>Taika Waititi</t>
   </si>
   <si>
-    <t>Kyle Balda, Pierre Coffin, Eric Guillon(co-director)</t>
-  </si>
-  <si>
-    <t>Jennifer Lawrence, Liam Hemsworth, Jack Quaid, Taylor St. Clair</t>
-  </si>
-  <si>
-    <t>Robert Downey Jr., Gwyneth Paltrow, Don Cheadle, Guy Pearce</t>
-  </si>
-  <si>
-    <t>Kristen Bell, Idina Menzel, Jonathan Groff, Josh Gad</t>
-  </si>
-  <si>
-    <t>Steve Carell, Kristen Wiig, Benjamin Bratt, Miranda Cosgrove</t>
-  </si>
-  <si>
-    <t>Henry Cavill, Amy Adams, Michael Shannon, Diane Lane</t>
-  </si>
-  <si>
-    <t>Sandra Bullock, George Clooney, Ed Harris, Orto Ignatiussen</t>
-  </si>
-  <si>
-    <t>Billy Crystal, John Goodman, Steve Buscemi, Helen Mirren</t>
-  </si>
-  <si>
-    <t>Ian McKellen, Martin Freeman, Richard Armitage, Ken Stott</t>
-  </si>
-  <si>
-    <t>Vin Diesel, Paul Walker, Dwayne Johnson, Jordana Brewster</t>
-  </si>
-  <si>
-    <t>James Franco, Mila Kunis, Rachel Weisz, Michelle Williams</t>
-  </si>
-  <si>
-    <t>Bradley Cooper, Kyle Gallner, Cole Konis, Ben Reed</t>
-  </si>
-  <si>
-    <t>Jennifer Lawrence, Josh Hutcherson, Liam Hemsworth, Woody Harrelson</t>
-  </si>
-  <si>
-    <t>Chris Pratt, Zoe Saldana, Dave Bautista, Vin Diesel</t>
-  </si>
-  <si>
-    <t>Chris Evans, Samuel L. Jackson, Scarlett Johansson, Robert Redford</t>
-  </si>
-  <si>
-    <t>Will Arnett, Elizabeth Banks, Craig Berry, Alison Brie</t>
-  </si>
-  <si>
-    <t>Mark Wahlberg, Stanley Tucci, Kelsey Grammer, Nicola Peltz</t>
-  </si>
-  <si>
-    <t>Angelina Jolie, Elle Fanning, Sharlto Copley, Lesley Manville</t>
-  </si>
-  <si>
-    <t>Hugh Jackman, James McAvoy, Michael Fassbender, Jennifer Lawrence</t>
-  </si>
-  <si>
-    <t>Scott Adsit, Ryan Potter, Daniel Henney, T.J. Miller</t>
-  </si>
-  <si>
-    <t>Harrison Ford, Mark Hamill, Carrie Fisher, Adam Driver</t>
-  </si>
-  <si>
-    <t>Chris Pratt, Bryce Dallas Howard, Irrfan Khan, Vincent D'Onofrio</t>
-  </si>
-  <si>
-    <t>Robert Downey Jr., Chris Hemsworth, Mark Ruffalo, Chris Evans</t>
-  </si>
-  <si>
-    <t>Amy Poehler, Phyllis Smith, Richard Kind, Bill Hader</t>
-  </si>
-  <si>
-    <t>Vin Diesel, Paul Walker, Jason Statham, Michelle Rodriguez</t>
-  </si>
-  <si>
-    <t>Sandra Bullock, Jon Hamm, Michael Keaton, Allison Janney</t>
-  </si>
-  <si>
-    <t>Matt Damon, Jessica Chastain, Kristen Wiig, Jeff Daniels</t>
-  </si>
-  <si>
-    <t>Cate Blanchett, Lily James, Richard Madden, Helena Bonham Carter</t>
-  </si>
-  <si>
-    <t>Daniel Craig, Christoph Waltz, Léa Seydoux, Ralph Fiennes</t>
-  </si>
-  <si>
-    <t>Felicity Jones, Diego Luna, Alan Tudyk, Donnie Yen</t>
-  </si>
-  <si>
-    <t>Ellen DeGeneres, Albert Brooks, Ed O'Neill, Kaitlin Olson</t>
-  </si>
-  <si>
-    <t>Chris Evans, Robert Downey Jr., Scarlett Johansson, Sebastian Stan</t>
-  </si>
-  <si>
-    <t>Louis C.K., Eric Stonestreet, Kevin Hart, Jenny Slate</t>
-  </si>
-  <si>
-    <t>Neel Sethi, Bill Murray, Ben Kingsley, Idris Elba</t>
-  </si>
-  <si>
-    <t>Ryan Reynolds, Karan Soni, Ed Skrein, Michael Benyaer</t>
-  </si>
-  <si>
-    <t>Ginnifer Goodwin, Jason Bateman, Idris Elba, Jenny Slate</t>
-  </si>
-  <si>
-    <t>Ben Affleck, Henry Cavill, Amy Adams, Jesse Eisenberg</t>
-  </si>
-  <si>
-    <t>Will Smith, Jaime FitzSimons, Ike Barinholtz, Margot Robbie</t>
-  </si>
-  <si>
-    <t>Matthew McConaughey, Reese Witherspoon, Seth MacFarlane, Scarlett Johansson</t>
-  </si>
-  <si>
-    <t>Mark Hamill, Carrie Fisher, Adam Driver, Daisy Ridley</t>
-  </si>
-  <si>
-    <t>Emma Watson, Dan Stevens, Luke Evans, Josh Gad</t>
-  </si>
-  <si>
-    <t>Gal Gadot, Chris Pine, Connie Nielsen, Robin Wright</t>
-  </si>
-  <si>
-    <t>Dwayne Johnson, Kevin Hart, Jack Black, Karen Gillan</t>
-  </si>
-  <si>
-    <t>Tom Holland, Michael Keaton, Robert Downey Jr., Marisa Tomei</t>
-  </si>
-  <si>
-    <t>Jaeden Lieberher, Jeremy Ray Taylor, Sophia Lillis, Finn Wolfhard</t>
-  </si>
-  <si>
-    <t>Chris Hemsworth, Tom Hiddleston, Cate Blanchett, Idris Elba</t>
-  </si>
-  <si>
-    <t>Steve Carell, Kristen Wiig, Trey Parker, Miranda Cosgrove</t>
-  </si>
-  <si>
-    <t>Ben Affleck, Henry Cavill, Amy Adams, Gal Gadot</t>
-  </si>
-  <si>
-    <t>89%</t>
-  </si>
-  <si>
-    <t>80%</t>
-  </si>
-  <si>
-    <t>90%</t>
-  </si>
-  <si>
-    <t>74%</t>
-  </si>
-  <si>
-    <t>55%</t>
-  </si>
-  <si>
-    <t>96%</t>
-  </si>
-  <si>
-    <t>79%</t>
-  </si>
-  <si>
-    <t>69%</t>
-  </si>
-  <si>
-    <t>59%</t>
-  </si>
-  <si>
-    <t>72%</t>
-  </si>
-  <si>
-    <t>66%</t>
-  </si>
-  <si>
-    <t>91%</t>
-  </si>
-  <si>
-    <t>18%</t>
-  </si>
-  <si>
-    <t>51%</t>
-  </si>
-  <si>
-    <t>93%</t>
-  </si>
-  <si>
-    <t>71%</t>
-  </si>
-  <si>
-    <t>75%</t>
-  </si>
-  <si>
-    <t>98%</t>
-  </si>
-  <si>
-    <t>56%</t>
-  </si>
-  <si>
-    <t>70%</t>
-  </si>
-  <si>
-    <t>84%</t>
-  </si>
-  <si>
-    <t>63%</t>
-  </si>
-  <si>
-    <t>85%</t>
-  </si>
-  <si>
-    <t>94%</t>
-  </si>
-  <si>
-    <t>95%</t>
-  </si>
-  <si>
-    <t>83%</t>
-  </si>
-  <si>
-    <t>27%</t>
-  </si>
-  <si>
-    <t>26%</t>
-  </si>
-  <si>
-    <t>73%</t>
-  </si>
-  <si>
-    <t>92%</t>
-  </si>
-  <si>
-    <t>76%</t>
-  </si>
-  <si>
-    <t>60%</t>
-  </si>
-  <si>
-    <t>40%</t>
-  </si>
-  <si>
-    <t>76/100</t>
-  </si>
-  <si>
-    <t>62/100</t>
-  </si>
-  <si>
-    <t>74/100</t>
-  </si>
-  <si>
-    <t>55/100</t>
-  </si>
-  <si>
-    <t>96/100</t>
-  </si>
-  <si>
-    <t>65/100</t>
-  </si>
-  <si>
-    <t>66/100</t>
-  </si>
-  <si>
-    <t>61/100</t>
-  </si>
-  <si>
-    <t>44/100</t>
-  </si>
-  <si>
-    <t>72/100</t>
-  </si>
-  <si>
-    <t>64/100</t>
-  </si>
-  <si>
-    <t>70/100</t>
-  </si>
-  <si>
-    <t>83/100</t>
-  </si>
-  <si>
-    <t>59/100</t>
-  </si>
-  <si>
-    <t>32/100</t>
-  </si>
-  <si>
-    <t>56/100</t>
-  </si>
-  <si>
-    <t>81/100</t>
-  </si>
-  <si>
-    <t>94/100</t>
-  </si>
-  <si>
-    <t>67/100</t>
-  </si>
-  <si>
-    <t>80/100</t>
-  </si>
-  <si>
-    <t>60/100</t>
-  </si>
-  <si>
-    <t>77/100</t>
-  </si>
-  <si>
-    <t>75/100</t>
-  </si>
-  <si>
-    <t>78/100</t>
-  </si>
-  <si>
-    <t>40/100</t>
-  </si>
-  <si>
-    <t>85/100</t>
-  </si>
-  <si>
-    <t>58/100</t>
-  </si>
-  <si>
-    <t>73/100</t>
-  </si>
-  <si>
-    <t>69/100</t>
-  </si>
-  <si>
-    <t>49/100</t>
-  </si>
-  <si>
-    <t>45/100</t>
-  </si>
-  <si>
-    <t>7.5/10</t>
-  </si>
-  <si>
-    <t>7.2/10</t>
-  </si>
-  <si>
-    <t>7.4/10</t>
-  </si>
-  <si>
-    <t>7.1/10</t>
-  </si>
-  <si>
-    <t>7.8/10</t>
-  </si>
-  <si>
-    <t>7.3/10</t>
-  </si>
-  <si>
-    <t>7.9/10</t>
-  </si>
-  <si>
-    <t>6.3/10</t>
-  </si>
-  <si>
-    <t>6.7/10</t>
-  </si>
-  <si>
-    <t>8.1/10</t>
-  </si>
-  <si>
-    <t>5.7/10</t>
-  </si>
-  <si>
-    <t>7.0/10</t>
-  </si>
-  <si>
-    <t>8.0/10</t>
-  </si>
-  <si>
-    <t>8.2/10</t>
-  </si>
-  <si>
-    <t>6.4/10</t>
-  </si>
-  <si>
-    <t>6.5/10</t>
-  </si>
-  <si>
-    <t>6.9/10</t>
-  </si>
-  <si>
-    <t>6.8/10</t>
-  </si>
-  <si>
-    <t>6.6/10</t>
-  </si>
-  <si>
-    <t>6.1/10</t>
-  </si>
-  <si>
-    <t>7.7/10</t>
+    <t>Jennifer Lawrence</t>
+  </si>
+  <si>
+    <t>Robert Downey Jr.</t>
+  </si>
+  <si>
+    <t>Kristen Bell</t>
+  </si>
+  <si>
+    <t>Steve Carell</t>
+  </si>
+  <si>
+    <t>Henry Cavill</t>
+  </si>
+  <si>
+    <t>Sandra Bullock</t>
+  </si>
+  <si>
+    <t>Billy Crystal</t>
+  </si>
+  <si>
+    <t>Ian McKellen</t>
+  </si>
+  <si>
+    <t>Vin Diesel</t>
+  </si>
+  <si>
+    <t>James Franco</t>
+  </si>
+  <si>
+    <t>Bradley Cooper</t>
+  </si>
+  <si>
+    <t>Chris Pratt</t>
+  </si>
+  <si>
+    <t>Chris Evans</t>
+  </si>
+  <si>
+    <t>Will Arnett</t>
+  </si>
+  <si>
+    <t>Mark Wahlberg</t>
+  </si>
+  <si>
+    <t>Angelina Jolie</t>
+  </si>
+  <si>
+    <t>Hugh Jackman</t>
+  </si>
+  <si>
+    <t>Scott Adsit</t>
+  </si>
+  <si>
+    <t>Harrison Ford</t>
+  </si>
+  <si>
+    <t>Amy Poehler</t>
+  </si>
+  <si>
+    <t>Matt Damon</t>
+  </si>
+  <si>
+    <t>Cate Blanchett</t>
+  </si>
+  <si>
+    <t>Daniel Craig</t>
+  </si>
+  <si>
+    <t>Felicity Jones</t>
+  </si>
+  <si>
+    <t>Ellen DeGeneres</t>
+  </si>
+  <si>
+    <t>Louis C.K.</t>
+  </si>
+  <si>
+    <t>Neel Sethi</t>
+  </si>
+  <si>
+    <t>Ryan Reynolds</t>
+  </si>
+  <si>
+    <t>Ginnifer Goodwin</t>
+  </si>
+  <si>
+    <t>Ben Affleck</t>
+  </si>
+  <si>
+    <t>Will Smith</t>
+  </si>
+  <si>
+    <t>Matthew McConaughey</t>
+  </si>
+  <si>
+    <t>Mark Hamill</t>
+  </si>
+  <si>
+    <t>Emma Watson</t>
+  </si>
+  <si>
+    <t>Gal Gadot</t>
+  </si>
+  <si>
+    <t>Dwayne Johnson</t>
+  </si>
+  <si>
+    <t>Tom Holland</t>
+  </si>
+  <si>
+    <t>Jaeden Lieberher</t>
+  </si>
+  <si>
+    <t>Chris Hemsworth</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Liam Hemsworth</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gwyneth Paltrow</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Idina Menzel</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kristen Wiig</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Amy Adams</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> George Clooney</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> John Goodman</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Martin Freeman</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Paul Walker</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mila Kunis</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kyle Gallner</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Josh Hutcherson</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Zoe Saldana</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Samuel L. Jackson</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Elizabeth Banks</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Stanley Tucci</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Elle Fanning</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> James McAvoy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ryan Potter</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mark Hamill</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bryce Dallas Howard</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chris Hemsworth</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Phyllis Smith</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jon Hamm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jessica Chastain</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lily James</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Christoph Waltz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Diego Luna</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Albert Brooks</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Robert Downey Jr.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Eric Stonestreet</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bill Murray</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Karan Soni</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jason Bateman</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Henry Cavill</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jaime FitzSimons</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Reese Witherspoon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Carrie Fisher</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dan Stevens</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chris Pine</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kevin Hart</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Michael Keaton</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jeremy Ray Taylor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tom Hiddleston</t>
   </si>
   <si>
     <t>Lionsgate Films</t>
@@ -1689,22 +1539,22 @@
         <v>220</v>
       </c>
       <c r="L2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M2" t="s">
-        <v>263</v>
-      </c>
-      <c r="N2" t="s">
-        <v>310</v>
-      </c>
-      <c r="O2" t="s">
-        <v>343</v>
-      </c>
-      <c r="P2" t="s">
-        <v>374</v>
+        <v>301</v>
+      </c>
+      <c r="N2">
+        <v>89</v>
+      </c>
+      <c r="O2">
+        <v>76</v>
+      </c>
+      <c r="P2">
+        <v>75</v>
       </c>
       <c r="Q2" t="s">
-        <v>395</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1742,22 +1592,22 @@
         <v>221</v>
       </c>
       <c r="L3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M3" t="s">
-        <v>264</v>
-      </c>
-      <c r="N3" t="s">
-        <v>311</v>
-      </c>
-      <c r="O3" t="s">
-        <v>344</v>
-      </c>
-      <c r="P3" t="s">
-        <v>375</v>
+        <v>302</v>
+      </c>
+      <c r="N3">
+        <v>80</v>
+      </c>
+      <c r="O3">
+        <v>62</v>
+      </c>
+      <c r="P3">
+        <v>72</v>
       </c>
       <c r="Q3" t="s">
-        <v>396</v>
+        <v>346</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1795,22 +1645,22 @@
         <v>222</v>
       </c>
       <c r="L4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M4" t="s">
-        <v>265</v>
-      </c>
-      <c r="N4" t="s">
-        <v>312</v>
-      </c>
-      <c r="O4" t="s">
-        <v>345</v>
-      </c>
-      <c r="P4" t="s">
-        <v>374</v>
+        <v>303</v>
+      </c>
+      <c r="N4">
+        <v>90</v>
+      </c>
+      <c r="O4">
+        <v>74</v>
+      </c>
+      <c r="P4">
+        <v>75</v>
       </c>
       <c r="Q4" t="s">
-        <v>396</v>
+        <v>346</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1848,22 +1698,22 @@
         <v>223</v>
       </c>
       <c r="L5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M5" t="s">
-        <v>266</v>
-      </c>
-      <c r="N5" t="s">
-        <v>313</v>
-      </c>
-      <c r="O5" t="s">
-        <v>344</v>
-      </c>
-      <c r="P5" t="s">
-        <v>376</v>
+        <v>304</v>
+      </c>
+      <c r="N5">
+        <v>74</v>
+      </c>
+      <c r="O5">
+        <v>62</v>
+      </c>
+      <c r="P5">
+        <v>74</v>
       </c>
       <c r="Q5" t="s">
-        <v>397</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1901,22 +1751,22 @@
         <v>224</v>
       </c>
       <c r="L6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M6" t="s">
-        <v>267</v>
-      </c>
-      <c r="N6" t="s">
-        <v>314</v>
-      </c>
-      <c r="O6" t="s">
-        <v>346</v>
-      </c>
-      <c r="P6" t="s">
-        <v>377</v>
+        <v>305</v>
+      </c>
+      <c r="N6">
+        <v>55</v>
+      </c>
+      <c r="O6">
+        <v>55.00000000000001</v>
+      </c>
+      <c r="P6">
+        <v>71</v>
       </c>
       <c r="Q6" t="s">
-        <v>398</v>
+        <v>348</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1954,22 +1804,22 @@
         <v>225</v>
       </c>
       <c r="L7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M7" t="s">
-        <v>268</v>
-      </c>
-      <c r="N7" t="s">
-        <v>315</v>
-      </c>
-      <c r="O7" t="s">
-        <v>347</v>
-      </c>
-      <c r="P7" t="s">
-        <v>378</v>
+        <v>306</v>
+      </c>
+      <c r="N7">
+        <v>96</v>
+      </c>
+      <c r="O7">
+        <v>96</v>
+      </c>
+      <c r="P7">
+        <v>78</v>
       </c>
       <c r="Q7" t="s">
-        <v>398</v>
+        <v>348</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2007,22 +1857,22 @@
         <v>226</v>
       </c>
       <c r="L8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M8" t="s">
-        <v>269</v>
-      </c>
-      <c r="N8" t="s">
-        <v>316</v>
-      </c>
-      <c r="O8" t="s">
-        <v>348</v>
-      </c>
-      <c r="P8" t="s">
-        <v>379</v>
+        <v>307</v>
+      </c>
+      <c r="N8">
+        <v>79</v>
+      </c>
+      <c r="O8">
+        <v>65</v>
+      </c>
+      <c r="P8">
+        <v>73</v>
       </c>
       <c r="Q8" t="s">
-        <v>396</v>
+        <v>346</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2060,22 +1910,22 @@
         <v>227</v>
       </c>
       <c r="L9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="M9" t="s">
-        <v>270</v>
-      </c>
-      <c r="N9" t="s">
-        <v>313</v>
-      </c>
-      <c r="O9" t="s">
+        <v>308</v>
+      </c>
+      <c r="N9">
+        <v>74</v>
+      </c>
+      <c r="O9">
+        <v>66</v>
+      </c>
+      <c r="P9">
+        <v>79</v>
+      </c>
+      <c r="Q9" t="s">
         <v>349</v>
-      </c>
-      <c r="P9" t="s">
-        <v>380</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2113,22 +1963,22 @@
         <v>228</v>
       </c>
       <c r="L10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M10" t="s">
-        <v>271</v>
-      </c>
-      <c r="N10" t="s">
-        <v>317</v>
-      </c>
-      <c r="O10" t="s">
-        <v>350</v>
-      </c>
-      <c r="P10" t="s">
-        <v>377</v>
+        <v>309</v>
+      </c>
+      <c r="N10">
+        <v>69</v>
+      </c>
+      <c r="O10">
+        <v>61</v>
+      </c>
+      <c r="P10">
+        <v>71</v>
       </c>
       <c r="Q10" t="s">
-        <v>397</v>
+        <v>347</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2166,22 +2016,22 @@
         <v>229</v>
       </c>
       <c r="L11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="M11" t="s">
-        <v>272</v>
-      </c>
-      <c r="N11" t="s">
-        <v>318</v>
-      </c>
-      <c r="O11" t="s">
-        <v>351</v>
-      </c>
-      <c r="P11" t="s">
-        <v>381</v>
+        <v>310</v>
+      </c>
+      <c r="N11">
+        <v>59</v>
+      </c>
+      <c r="O11">
+        <v>44</v>
+      </c>
+      <c r="P11">
+        <v>63</v>
       </c>
       <c r="Q11" t="s">
-        <v>396</v>
+        <v>346</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2219,22 +2069,22 @@
         <v>230</v>
       </c>
       <c r="L12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="M12" t="s">
-        <v>273</v>
-      </c>
-      <c r="N12" t="s">
-        <v>319</v>
-      </c>
-      <c r="O12" t="s">
-        <v>352</v>
-      </c>
-      <c r="P12" t="s">
-        <v>379</v>
+        <v>311</v>
+      </c>
+      <c r="N12">
+        <v>72</v>
+      </c>
+      <c r="O12">
+        <v>72</v>
+      </c>
+      <c r="P12">
+        <v>73</v>
       </c>
       <c r="Q12" t="s">
-        <v>399</v>
+        <v>349</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2272,22 +2122,22 @@
         <v>220</v>
       </c>
       <c r="L13" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="M13" t="s">
-        <v>274</v>
-      </c>
-      <c r="N13" t="s">
-        <v>320</v>
-      </c>
-      <c r="O13" t="s">
-        <v>353</v>
-      </c>
-      <c r="P13" t="s">
-        <v>382</v>
+        <v>312</v>
+      </c>
+      <c r="N13">
+        <v>66</v>
+      </c>
+      <c r="O13">
+        <v>64</v>
+      </c>
+      <c r="P13">
+        <v>67</v>
       </c>
       <c r="Q13" t="s">
-        <v>395</v>
+        <v>345</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2325,22 +2175,22 @@
         <v>231</v>
       </c>
       <c r="L14" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="M14" t="s">
-        <v>275</v>
-      </c>
-      <c r="N14" t="s">
-        <v>321</v>
-      </c>
-      <c r="O14" t="s">
-        <v>343</v>
-      </c>
-      <c r="P14" t="s">
-        <v>383</v>
+        <v>313</v>
+      </c>
+      <c r="N14">
+        <v>91</v>
+      </c>
+      <c r="O14">
+        <v>76</v>
+      </c>
+      <c r="P14">
+        <v>81</v>
       </c>
       <c r="Q14" t="s">
-        <v>396</v>
+        <v>346</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -2378,22 +2228,22 @@
         <v>232</v>
       </c>
       <c r="L15" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="M15" t="s">
-        <v>276</v>
-      </c>
-      <c r="N15" t="s">
-        <v>310</v>
-      </c>
-      <c r="O15" t="s">
-        <v>354</v>
-      </c>
-      <c r="P15" t="s">
-        <v>378</v>
+        <v>314</v>
+      </c>
+      <c r="N15">
+        <v>89</v>
+      </c>
+      <c r="O15">
+        <v>70</v>
+      </c>
+      <c r="P15">
+        <v>78</v>
       </c>
       <c r="Q15" t="s">
-        <v>396</v>
+        <v>346</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -2431,22 +2281,22 @@
         <v>233</v>
       </c>
       <c r="L16" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="M16" t="s">
-        <v>277</v>
-      </c>
-      <c r="N16" t="s">
         <v>315</v>
       </c>
-      <c r="O16" t="s">
-        <v>355</v>
-      </c>
-      <c r="P16" t="s">
-        <v>378</v>
+      <c r="N16">
+        <v>96</v>
+      </c>
+      <c r="O16">
+        <v>83</v>
+      </c>
+      <c r="P16">
+        <v>78</v>
       </c>
       <c r="Q16" t="s">
-        <v>398</v>
+        <v>348</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -2484,22 +2334,22 @@
         <v>227</v>
       </c>
       <c r="L17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="M17" t="s">
-        <v>270</v>
-      </c>
-      <c r="N17" t="s">
-        <v>318</v>
-      </c>
-      <c r="O17" t="s">
-        <v>356</v>
-      </c>
-      <c r="P17" t="s">
-        <v>376</v>
+        <v>308</v>
+      </c>
+      <c r="N17">
+        <v>59</v>
+      </c>
+      <c r="O17">
+        <v>59</v>
+      </c>
+      <c r="P17">
+        <v>74</v>
       </c>
       <c r="Q17" t="s">
-        <v>399</v>
+        <v>349</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -2537,22 +2387,22 @@
         <v>234</v>
       </c>
       <c r="L18" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M18" t="s">
-        <v>278</v>
-      </c>
-      <c r="N18" t="s">
-        <v>322</v>
-      </c>
-      <c r="O18" t="s">
-        <v>357</v>
-      </c>
-      <c r="P18" t="s">
-        <v>384</v>
+        <v>316</v>
+      </c>
+      <c r="N18">
+        <v>18</v>
+      </c>
+      <c r="O18">
+        <v>32</v>
+      </c>
+      <c r="P18">
+        <v>57</v>
       </c>
       <c r="Q18" t="s">
-        <v>400</v>
+        <v>350</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -2590,22 +2440,22 @@
         <v>235</v>
       </c>
       <c r="L19" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M19" t="s">
-        <v>279</v>
-      </c>
-      <c r="N19" t="s">
-        <v>323</v>
-      </c>
-      <c r="O19" t="s">
-        <v>358</v>
-      </c>
-      <c r="P19" t="s">
-        <v>385</v>
+        <v>317</v>
+      </c>
+      <c r="N19">
+        <v>51</v>
+      </c>
+      <c r="O19">
+        <v>56.00000000000001</v>
+      </c>
+      <c r="P19">
+        <v>70</v>
       </c>
       <c r="Q19" t="s">
-        <v>396</v>
+        <v>346</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -2643,22 +2493,22 @@
         <v>236</v>
       </c>
       <c r="L20" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="M20" t="s">
-        <v>280</v>
-      </c>
-      <c r="N20" t="s">
-        <v>312</v>
-      </c>
-      <c r="O20" t="s">
-        <v>345</v>
-      </c>
-      <c r="P20" t="s">
-        <v>386</v>
+        <v>318</v>
+      </c>
+      <c r="N20">
+        <v>90</v>
+      </c>
+      <c r="O20">
+        <v>74</v>
+      </c>
+      <c r="P20">
+        <v>80</v>
       </c>
       <c r="Q20" t="s">
-        <v>401</v>
+        <v>351</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -2696,22 +2546,22 @@
         <v>237</v>
       </c>
       <c r="L21" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="M21" t="s">
-        <v>281</v>
-      </c>
-      <c r="N21" t="s">
-        <v>310</v>
-      </c>
-      <c r="O21" t="s">
-        <v>345</v>
-      </c>
-      <c r="P21" t="s">
-        <v>378</v>
+        <v>319</v>
+      </c>
+      <c r="N21">
+        <v>89</v>
+      </c>
+      <c r="O21">
+        <v>74</v>
+      </c>
+      <c r="P21">
+        <v>78</v>
       </c>
       <c r="Q21" t="s">
-        <v>396</v>
+        <v>346</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -2749,22 +2599,22 @@
         <v>238</v>
       </c>
       <c r="L22" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="M22" t="s">
-        <v>282</v>
-      </c>
-      <c r="N22" t="s">
-        <v>324</v>
-      </c>
-      <c r="O22" t="s">
-        <v>359</v>
-      </c>
-      <c r="P22" t="s">
-        <v>386</v>
+        <v>320</v>
+      </c>
+      <c r="N22">
+        <v>93</v>
+      </c>
+      <c r="O22">
+        <v>81</v>
+      </c>
+      <c r="P22">
+        <v>80</v>
       </c>
       <c r="Q22" t="s">
-        <v>396</v>
+        <v>346</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -2802,22 +2652,22 @@
         <v>239</v>
       </c>
       <c r="L23" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="M23" t="s">
-        <v>283</v>
-      </c>
-      <c r="N23" t="s">
-        <v>325</v>
-      </c>
-      <c r="O23" t="s">
-        <v>356</v>
-      </c>
-      <c r="P23" t="s">
-        <v>385</v>
+        <v>321</v>
+      </c>
+      <c r="N23">
+        <v>71</v>
+      </c>
+      <c r="O23">
+        <v>59</v>
+      </c>
+      <c r="P23">
+        <v>70</v>
       </c>
       <c r="Q23" t="s">
-        <v>397</v>
+        <v>347</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -2855,22 +2705,22 @@
         <v>240</v>
       </c>
       <c r="L24" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="M24" t="s">
-        <v>284</v>
-      </c>
-      <c r="N24" t="s">
-        <v>326</v>
-      </c>
-      <c r="O24" t="s">
-        <v>349</v>
-      </c>
-      <c r="P24" t="s">
-        <v>376</v>
+        <v>322</v>
+      </c>
+      <c r="N24">
+        <v>75</v>
+      </c>
+      <c r="O24">
+        <v>66</v>
+      </c>
+      <c r="P24">
+        <v>74</v>
       </c>
       <c r="Q24" t="s">
-        <v>396</v>
+        <v>346</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2908,22 +2758,22 @@
         <v>241</v>
       </c>
       <c r="L25" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="M25" t="s">
-        <v>285</v>
-      </c>
-      <c r="N25" t="s">
-        <v>327</v>
-      </c>
-      <c r="O25" t="s">
-        <v>360</v>
-      </c>
-      <c r="P25" t="s">
-        <v>387</v>
+        <v>323</v>
+      </c>
+      <c r="N25">
+        <v>98</v>
+      </c>
+      <c r="O25">
+        <v>94</v>
+      </c>
+      <c r="P25">
+        <v>82</v>
       </c>
       <c r="Q25" t="s">
-        <v>402</v>
+        <v>352</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2961,22 +2811,22 @@
         <v>242</v>
       </c>
       <c r="L26" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="M26" t="s">
-        <v>286</v>
-      </c>
-      <c r="N26" t="s">
-        <v>311</v>
-      </c>
-      <c r="O26" t="s">
-        <v>361</v>
-      </c>
-      <c r="P26" t="s">
-        <v>375</v>
+        <v>309</v>
+      </c>
+      <c r="N26">
+        <v>80</v>
+      </c>
+      <c r="O26">
+        <v>67</v>
+      </c>
+      <c r="P26">
+        <v>72</v>
       </c>
       <c r="Q26" t="s">
-        <v>397</v>
+        <v>347</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -3014,22 +2864,22 @@
         <v>243</v>
       </c>
       <c r="L27" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="M27" t="s">
-        <v>287</v>
-      </c>
-      <c r="N27" t="s">
-        <v>328</v>
-      </c>
-      <c r="O27" t="s">
-        <v>358</v>
-      </c>
-      <c r="P27" t="s">
-        <v>388</v>
+        <v>324</v>
+      </c>
+      <c r="N27">
+        <v>56</v>
+      </c>
+      <c r="O27">
+        <v>56.00000000000001</v>
+      </c>
+      <c r="P27">
+        <v>64</v>
       </c>
       <c r="Q27" t="s">
-        <v>397</v>
+        <v>347</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -3067,22 +2917,22 @@
         <v>220</v>
       </c>
       <c r="L28" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="M28" t="s">
-        <v>274</v>
-      </c>
-      <c r="N28" t="s">
-        <v>329</v>
-      </c>
-      <c r="O28" t="s">
-        <v>348</v>
-      </c>
-      <c r="P28" t="s">
-        <v>389</v>
+        <v>312</v>
+      </c>
+      <c r="N28">
+        <v>70</v>
+      </c>
+      <c r="O28">
+        <v>65</v>
+      </c>
+      <c r="P28">
+        <v>65</v>
       </c>
       <c r="Q28" t="s">
-        <v>395</v>
+        <v>345</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -3120,22 +2970,22 @@
         <v>244</v>
       </c>
       <c r="L29" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="M29" t="s">
-        <v>288</v>
-      </c>
-      <c r="N29" t="s">
-        <v>321</v>
-      </c>
-      <c r="O29" t="s">
-        <v>362</v>
-      </c>
-      <c r="P29" t="s">
-        <v>386</v>
+        <v>325</v>
+      </c>
+      <c r="N29">
+        <v>91</v>
+      </c>
+      <c r="O29">
+        <v>80</v>
+      </c>
+      <c r="P29">
+        <v>80</v>
       </c>
       <c r="Q29" t="s">
-        <v>401</v>
+        <v>351</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -3173,22 +3023,22 @@
         <v>245</v>
       </c>
       <c r="L30" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="M30" t="s">
-        <v>289</v>
-      </c>
-      <c r="N30" t="s">
-        <v>330</v>
-      </c>
-      <c r="O30" t="s">
-        <v>361</v>
-      </c>
-      <c r="P30" t="s">
-        <v>390</v>
+        <v>326</v>
+      </c>
+      <c r="N30">
+        <v>84</v>
+      </c>
+      <c r="O30">
+        <v>67</v>
+      </c>
+      <c r="P30">
+        <v>69</v>
       </c>
       <c r="Q30" t="s">
-        <v>396</v>
+        <v>346</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -3226,22 +3076,22 @@
         <v>246</v>
       </c>
       <c r="L31" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="M31" t="s">
-        <v>290</v>
-      </c>
-      <c r="N31" t="s">
-        <v>331</v>
-      </c>
-      <c r="O31" t="s">
-        <v>363</v>
-      </c>
-      <c r="P31" t="s">
-        <v>391</v>
+        <v>327</v>
+      </c>
+      <c r="N31">
+        <v>63</v>
+      </c>
+      <c r="O31">
+        <v>60</v>
+      </c>
+      <c r="P31">
+        <v>68</v>
       </c>
       <c r="Q31" t="s">
-        <v>403</v>
+        <v>353</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -3279,22 +3129,22 @@
         <v>247</v>
       </c>
       <c r="L32" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="M32" t="s">
-        <v>291</v>
-      </c>
-      <c r="N32" t="s">
-        <v>332</v>
-      </c>
-      <c r="O32" t="s">
-        <v>348</v>
-      </c>
-      <c r="P32" t="s">
-        <v>378</v>
+        <v>328</v>
+      </c>
+      <c r="N32">
+        <v>85</v>
+      </c>
+      <c r="O32">
+        <v>65</v>
+      </c>
+      <c r="P32">
+        <v>78</v>
       </c>
       <c r="Q32" t="s">
-        <v>396</v>
+        <v>346</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -3332,22 +3182,22 @@
         <v>248</v>
       </c>
       <c r="L33" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="M33" t="s">
-        <v>292</v>
-      </c>
-      <c r="N33" t="s">
-        <v>333</v>
-      </c>
-      <c r="O33" t="s">
-        <v>364</v>
-      </c>
-      <c r="P33" t="s">
-        <v>376</v>
+        <v>329</v>
+      </c>
+      <c r="N33">
+        <v>94</v>
+      </c>
+      <c r="O33">
+        <v>77</v>
+      </c>
+      <c r="P33">
+        <v>74</v>
       </c>
       <c r="Q33" t="s">
-        <v>404</v>
+        <v>354</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -3385,22 +3235,22 @@
         <v>232</v>
       </c>
       <c r="L34" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
       <c r="M34" t="s">
-        <v>293</v>
-      </c>
-      <c r="N34" t="s">
-        <v>321</v>
-      </c>
-      <c r="O34" t="s">
-        <v>365</v>
-      </c>
-      <c r="P34" t="s">
-        <v>378</v>
+        <v>330</v>
+      </c>
+      <c r="N34">
+        <v>91</v>
+      </c>
+      <c r="O34">
+        <v>75</v>
+      </c>
+      <c r="P34">
+        <v>78</v>
       </c>
       <c r="Q34" t="s">
-        <v>396</v>
+        <v>346</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -3438,22 +3288,22 @@
         <v>249</v>
       </c>
       <c r="L35" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="M35" t="s">
-        <v>294</v>
-      </c>
-      <c r="N35" t="s">
-        <v>326</v>
-      </c>
-      <c r="O35" t="s">
-        <v>350</v>
-      </c>
-      <c r="P35" t="s">
-        <v>389</v>
+        <v>331</v>
+      </c>
+      <c r="N35">
+        <v>75</v>
+      </c>
+      <c r="O35">
+        <v>61</v>
+      </c>
+      <c r="P35">
+        <v>65</v>
       </c>
       <c r="Q35" t="s">
-        <v>397</v>
+        <v>347</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -3491,22 +3341,22 @@
         <v>250</v>
       </c>
       <c r="L36" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="M36" t="s">
-        <v>295</v>
-      </c>
-      <c r="N36" t="s">
-        <v>334</v>
-      </c>
-      <c r="O36" t="s">
-        <v>364</v>
-      </c>
-      <c r="P36" t="s">
-        <v>374</v>
+        <v>332</v>
+      </c>
+      <c r="N36">
+        <v>95</v>
+      </c>
+      <c r="O36">
+        <v>77</v>
+      </c>
+      <c r="P36">
+        <v>75</v>
       </c>
       <c r="Q36" t="s">
-        <v>396</v>
+        <v>346</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -3544,22 +3394,22 @@
         <v>251</v>
       </c>
       <c r="L37" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="M37" t="s">
-        <v>296</v>
-      </c>
-      <c r="N37" t="s">
-        <v>335</v>
-      </c>
-      <c r="O37" t="s">
-        <v>348</v>
-      </c>
-      <c r="P37" t="s">
-        <v>386</v>
+        <v>333</v>
+      </c>
+      <c r="N37">
+        <v>83</v>
+      </c>
+      <c r="O37">
+        <v>65</v>
+      </c>
+      <c r="P37">
+        <v>80</v>
       </c>
       <c r="Q37" t="s">
-        <v>401</v>
+        <v>351</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -3597,22 +3447,22 @@
         <v>252</v>
       </c>
       <c r="L38" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="M38" t="s">
-        <v>297</v>
-      </c>
-      <c r="N38" t="s">
-        <v>327</v>
-      </c>
-      <c r="O38" t="s">
-        <v>366</v>
-      </c>
-      <c r="P38" t="s">
-        <v>386</v>
+        <v>334</v>
+      </c>
+      <c r="N38">
+        <v>98</v>
+      </c>
+      <c r="O38">
+        <v>78</v>
+      </c>
+      <c r="P38">
+        <v>80</v>
       </c>
       <c r="Q38" t="s">
-        <v>405</v>
+        <v>355</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -3650,22 +3500,22 @@
         <v>224</v>
       </c>
       <c r="L39" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="M39" t="s">
-        <v>298</v>
-      </c>
-      <c r="N39" t="s">
-        <v>336</v>
-      </c>
-      <c r="O39" t="s">
-        <v>351</v>
-      </c>
-      <c r="P39" t="s">
-        <v>392</v>
+        <v>335</v>
+      </c>
+      <c r="N39">
+        <v>27</v>
+      </c>
+      <c r="O39">
+        <v>44</v>
+      </c>
+      <c r="P39">
+        <v>66</v>
       </c>
       <c r="Q39" t="s">
-        <v>398</v>
+        <v>348</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -3703,22 +3553,22 @@
         <v>253</v>
       </c>
       <c r="L40" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="M40" t="s">
-        <v>299</v>
-      </c>
-      <c r="N40" t="s">
-        <v>337</v>
-      </c>
-      <c r="O40" t="s">
-        <v>367</v>
-      </c>
-      <c r="P40" t="s">
-        <v>393</v>
+        <v>336</v>
+      </c>
+      <c r="N40">
+        <v>26</v>
+      </c>
+      <c r="O40">
+        <v>40</v>
+      </c>
+      <c r="P40">
+        <v>61</v>
       </c>
       <c r="Q40" t="s">
-        <v>398</v>
+        <v>348</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -3756,22 +3606,22 @@
         <v>254</v>
       </c>
       <c r="L41" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="M41" t="s">
-        <v>300</v>
-      </c>
-      <c r="N41" t="s">
-        <v>338</v>
-      </c>
-      <c r="O41" t="s">
+        <v>337</v>
+      </c>
+      <c r="N41">
+        <v>73</v>
+      </c>
+      <c r="O41">
+        <v>59</v>
+      </c>
+      <c r="P41">
+        <v>71</v>
+      </c>
+      <c r="Q41" t="s">
         <v>356</v>
-      </c>
-      <c r="P41" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -3809,22 +3659,22 @@
         <v>255</v>
       </c>
       <c r="L42" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="M42" t="s">
-        <v>301</v>
-      </c>
-      <c r="N42" t="s">
-        <v>321</v>
-      </c>
-      <c r="O42" t="s">
-        <v>368</v>
-      </c>
-      <c r="P42" t="s">
-        <v>376</v>
+        <v>338</v>
+      </c>
+      <c r="N42">
+        <v>91</v>
+      </c>
+      <c r="O42">
+        <v>85</v>
+      </c>
+      <c r="P42">
+        <v>74</v>
       </c>
       <c r="Q42" t="s">
-        <v>396</v>
+        <v>346</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -3862,22 +3712,22 @@
         <v>256</v>
       </c>
       <c r="L43" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="M43" t="s">
-        <v>302</v>
-      </c>
-      <c r="N43" t="s">
-        <v>325</v>
-      </c>
-      <c r="O43" t="s">
-        <v>348</v>
-      </c>
-      <c r="P43" t="s">
-        <v>379</v>
+        <v>339</v>
+      </c>
+      <c r="N43">
+        <v>71</v>
+      </c>
+      <c r="O43">
+        <v>65</v>
+      </c>
+      <c r="P43">
+        <v>73</v>
       </c>
       <c r="Q43" t="s">
-        <v>396</v>
+        <v>346</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -3915,22 +3765,22 @@
         <v>257</v>
       </c>
       <c r="L44" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="M44" t="s">
-        <v>303</v>
-      </c>
-      <c r="N44" t="s">
-        <v>339</v>
-      </c>
-      <c r="O44" t="s">
-        <v>343</v>
-      </c>
-      <c r="P44" t="s">
-        <v>374</v>
+        <v>340</v>
+      </c>
+      <c r="N44">
+        <v>92</v>
+      </c>
+      <c r="O44">
+        <v>76</v>
+      </c>
+      <c r="P44">
+        <v>75</v>
       </c>
       <c r="Q44" t="s">
-        <v>398</v>
+        <v>348</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -3968,22 +3818,22 @@
         <v>258</v>
       </c>
       <c r="L45" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="M45" t="s">
-        <v>304</v>
-      </c>
-      <c r="N45" t="s">
-        <v>340</v>
-      </c>
-      <c r="O45" t="s">
-        <v>369</v>
-      </c>
-      <c r="P45" t="s">
-        <v>385</v>
+        <v>341</v>
+      </c>
+      <c r="N45">
+        <v>76</v>
+      </c>
+      <c r="O45">
+        <v>57.99999999999999</v>
+      </c>
+      <c r="P45">
+        <v>70</v>
       </c>
       <c r="Q45" t="s">
-        <v>407</v>
+        <v>357</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -4021,22 +3871,22 @@
         <v>231</v>
       </c>
       <c r="L46" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="M46" t="s">
-        <v>275</v>
-      </c>
-      <c r="N46" t="s">
-        <v>335</v>
-      </c>
-      <c r="O46" t="s">
-        <v>361</v>
-      </c>
-      <c r="P46" t="s">
-        <v>394</v>
+        <v>313</v>
+      </c>
+      <c r="N46">
+        <v>83</v>
+      </c>
+      <c r="O46">
+        <v>67</v>
+      </c>
+      <c r="P46">
+        <v>77</v>
       </c>
       <c r="Q46" t="s">
-        <v>396</v>
+        <v>346</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -4074,22 +3924,22 @@
         <v>259</v>
       </c>
       <c r="L47" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="M47" t="s">
-        <v>305</v>
-      </c>
-      <c r="N47" t="s">
-        <v>339</v>
-      </c>
-      <c r="O47" t="s">
-        <v>370</v>
-      </c>
-      <c r="P47" t="s">
-        <v>374</v>
+        <v>342</v>
+      </c>
+      <c r="N47">
+        <v>92</v>
+      </c>
+      <c r="O47">
+        <v>73</v>
+      </c>
+      <c r="P47">
+        <v>75</v>
       </c>
       <c r="Q47" t="s">
-        <v>403</v>
+        <v>353</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -4127,22 +3977,22 @@
         <v>260</v>
       </c>
       <c r="L48" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="M48" t="s">
-        <v>306</v>
-      </c>
-      <c r="N48" t="s">
-        <v>332</v>
-      </c>
-      <c r="O48" t="s">
-        <v>371</v>
-      </c>
-      <c r="P48" t="s">
-        <v>374</v>
+        <v>343</v>
+      </c>
+      <c r="N48">
+        <v>85</v>
+      </c>
+      <c r="O48">
+        <v>69</v>
+      </c>
+      <c r="P48">
+        <v>75</v>
       </c>
       <c r="Q48" t="s">
-        <v>398</v>
+        <v>348</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -4180,22 +4030,22 @@
         <v>261</v>
       </c>
       <c r="L49" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="M49" t="s">
-        <v>307</v>
-      </c>
-      <c r="N49" t="s">
-        <v>339</v>
-      </c>
-      <c r="O49" t="s">
-        <v>345</v>
-      </c>
-      <c r="P49" t="s">
-        <v>386</v>
+        <v>344</v>
+      </c>
+      <c r="N49">
+        <v>92</v>
+      </c>
+      <c r="O49">
+        <v>74</v>
+      </c>
+      <c r="P49">
+        <v>80</v>
       </c>
       <c r="Q49" t="s">
-        <v>396</v>
+        <v>346</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -4230,25 +4080,25 @@
         <v>89</v>
       </c>
       <c r="K50" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="L50" t="s">
-        <v>308</v>
+        <v>265</v>
       </c>
       <c r="M50" t="s">
-        <v>308</v>
-      </c>
-      <c r="N50" t="s">
-        <v>341</v>
-      </c>
-      <c r="O50" t="s">
-        <v>372</v>
-      </c>
-      <c r="P50" t="s">
-        <v>381</v>
+        <v>304</v>
+      </c>
+      <c r="N50">
+        <v>60</v>
+      </c>
+      <c r="O50">
+        <v>49</v>
+      </c>
+      <c r="P50">
+        <v>63</v>
       </c>
       <c r="Q50" t="s">
-        <v>397</v>
+        <v>347</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -4286,22 +4136,22 @@
         <v>224</v>
       </c>
       <c r="L51" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="M51" t="s">
-        <v>309</v>
-      </c>
-      <c r="N51" t="s">
-        <v>342</v>
-      </c>
-      <c r="O51" t="s">
-        <v>373</v>
-      </c>
-      <c r="P51" t="s">
-        <v>391</v>
+        <v>335</v>
+      </c>
+      <c r="N51">
+        <v>40</v>
+      </c>
+      <c r="O51">
+        <v>45</v>
+      </c>
+      <c r="P51">
+        <v>68</v>
       </c>
       <c r="Q51" t="s">
-        <v>398</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
